--- a/MC_compare_2022/CN_MC_compared_softBV_break_cal.xlsx
+++ b/MC_compare_2022/CN_MC_compared_softBV_break_cal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Parameters</t>
   </si>
@@ -25,19 +25,55 @@
     <t>Number of different occurrence</t>
   </si>
   <si>
+    <t>2.8_0.01_0.5</t>
+  </si>
+  <si>
     <t>2.8_0.01_0.7</t>
   </si>
   <si>
+    <t>2.8_0.02_0.5</t>
+  </si>
+  <si>
     <t>2.8_0.02_0.7</t>
   </si>
   <si>
+    <t>2.8_0.03_0.5</t>
+  </si>
+  <si>
     <t>2.8_0.03_0.7</t>
   </si>
   <si>
+    <t>4.25_0.01_0.5</t>
+  </si>
+  <si>
+    <t>4.25_0.01_0.7</t>
+  </si>
+  <si>
+    <t>4.25_0.02_0.5</t>
+  </si>
+  <si>
+    <t>4.25_0.02_0.7</t>
+  </si>
+  <si>
+    <t>4.25_0.03_0.5</t>
+  </si>
+  <si>
+    <t>4.25_0.03_0.7</t>
+  </si>
+  <si>
+    <t>4.5_0.01_0.5</t>
+  </si>
+  <si>
     <t>4.5_0.01_0.7</t>
   </si>
   <si>
+    <t>4.5_0.02_0.5</t>
+  </si>
+  <si>
     <t>4.5_0.02_0.7</t>
+  </si>
+  <si>
+    <t>4.5_0.03_0.5</t>
   </si>
   <si>
     <t>4.5_0.03_0.7</t>
@@ -398,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.9510468477130349</v>
+        <v>0.2833534776615454</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -479,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.9510468477130349</v>
+        <v>0.2833534776615454</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -493,9 +529,177 @@
         <v>8</v>
       </c>
       <c r="C7">
+        <v>0.2833534776615454</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>0.1643677059831627</v>
       </c>
-      <c r="D7">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0.1643677059831627</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.9510468477130349</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.9510468477130349</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.9510468477130349</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0.9510468477130349</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0.1643677059831627</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0.1643677059831627</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
     </row>
